--- a/datastatic/datasets/online/SDG4_PISA_Maths_OECD_2015.xlsx
+++ b/datastatic/datasets/online/SDG4_PISA_Maths_OECD_2015.xlsx
@@ -53,7 +53,8 @@
     <t>long_indicator_description$en$text</t>
   </si>
   <si>
-    <t xml:space="preserve">The PISA study measures student performance independent of national curricula. It measures to what extent national education systems transmit transferrable knowledge. This indicator shows to what extent students have mathematical literacy, which is defined as "an individual's capacity to formulate, employ and interpret mathematics in a variety of contexts. It includes reasoning mathematically and using mathematical concepts, procedures, facts and tools to describe, explain and predict phenomena. It assists individuals to recognize the role that mathematics play in the world and to make the well-founded judgements and decisions needed by constructive, engaged and reflective citizens". 15-year-olds in each country take tests to assess their competencies in mathematics, reading and natural sciences. The results are rescaled, so that the OECD average in each subject area is at 500 with a standard deviation of 100. As a result, country rankings are more informative than the points scored. </t>
+    <t>The PISA study measures student performance independent of national curricula. It measures to what extent national education systems transmit transferrable knowledge. This indicator shows to what extent students have mathematical literacy, which is defined as "an individual's capacity to formulate, employ and interpret mathematics in a variety of contexts. It includes reasoning mathematically and using mathematical concepts, procedures, facts and tools to describe, explain and predict phenomena. It assists individuals to recognize the role that mathematics play in the world and to make the well-founded judgements and decisions needed by constructive, engaged and reflective citizens". 15-year-olds in each country take tests to assess their competencies in mathematics, reading and natural sciences. The results are rescaled, so that the OECD average in each subject area is at 500 with a standard deviation of 100. As a result, country rankings are more informative than the points scored. 
+PISA is one of the most comprehensive tools to compare education in an international context. Nevertheless, it has been criticised heavily for excerting too much influence over national education policies, putting too much emphasis on assessment and diverging attention from unmeasurable effects of education. For these reasons, we are looking for alternative education indicators, which can be included in the 2030 Watch tool.</t>
   </si>
   <si>
     <t>long_indicator_description$en$baseunit</t>
@@ -65,8 +66,8 @@
     <t>long_indicator_description$de$text</t>
   </si>
   <si>
-    <t xml:space="preserve">Die PISA Studie misst Schülerleistungen unabhängig von Lehrplänen, es wird also gemessen, inwiefern nationale Bildungssysteme anwendbares Wissen vermitteln. 15-Jährige Schüler machen zweistündige Tests, in denen Kompetenzen in den Felern Mathematik, Lesekompetenz und Naturwissenschaften geprüft werden. Hier werden die Ergebnisse für mathematische Fähigkeit gezeigt, was definiert ist als: “die Fähigkeit, Mathematik in verschiedenen Kontexten zu formulieren, anzuwenden und zu interpretieren. Es beinhaltet mathematisch zu argumentieren und mathematische Konzepte, Vorgänge und Fakten zu nutzen um Phänomene zu beschreiben, erklären und vorherzusagen. Es hilft Personen, die Rolle, die Mathematik in der Welt spielt, zu verstehen und fundierte Einschätzungen zu treffen, die von konstruktiven, engagierten und reflektierten Bürgern gebraucht werden.”
-Die errzielten Ergebnisse werden nachträglich skaliert, sodass die OECD Staaten in jedem Feld einen Mittelwert von 500 und eine Standardabweichung von 100 haben. Deswegen sagt das Ranking der Länder mehr aus als die erreichte Punktzahl eines Landes. </t>
+    <t>Die PISA Studie misst Schülerleistungen unabhängig von Lehrplänen, es wird also gemessen, inwiefern nationale Bildungssysteme anwendbares Wissen vermitteln. 15-Jährige Schüler machen zweistündige Tests, in denen Kompetenzen in den Felern Mathematik, Lesekompetenz und Naturwissenschaften geprüft werden. Hier werden die Ergebnisse für mathematische Fähigkeit gezeigt, was definiert ist als: “die Fähigkeit, Mathematik in verschiedenen Kontexten zu formulieren, anzuwenden und zu interpretieren. Es beinhaltet mathematisch zu argumentieren und mathematische Konzepte, Vorgänge und Fakten zu nutzen um Phänomene zu beschreiben, erklären und vorherzusagen. Es hilft Personen, die Rolle, die Mathematik in der Welt spielt, zu verstehen und fundierte Einschätzungen zu treffen, die von konstruktiven, engagierten und reflektierten Bürgern gebraucht werden.” Die errzielten Ergebnisse werden nachträglich skaliert, sodass die OECD Staaten in jedem Feld einen Mittelwert von 500 und eine Standardabweichung von 100 haben. Deswegen sagt das Ranking der Länder mehr aus als die erreichte Punktzahl eines Landes. 
+PISA is eine der umfangreichsten Studien, um Bildung international zu vergleichen. Trotzdem wird sie viel kritisiert, unter anderem wegen des großen Einflusses auf nationale Bildungspolitik und des Schwerpunktes auf Leistungsprüfungen, sodass nicht messbare Lerneffekte unter den Tisch fallen. Deswegen suchen wir nach alternativen Bildungsindikatoren für das 2030 Watch Tool.</t>
   </si>
   <si>
     <t>long_indicator_description$de$baseunit</t>

--- a/datastatic/datasets/online/SDG4_PISA_Maths_OECD_2015.xlsx
+++ b/datastatic/datasets/online/SDG4_PISA_Maths_OECD_2015.xlsx
@@ -649,7 +649,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.86"/>
+    <col customWidth="1" min="1" max="1" width="32.0"/>
     <col customWidth="1" min="2" max="2" width="18.86"/>
   </cols>
   <sheetData>

--- a/datastatic/datasets/online/SDG4_PISA_Maths_OECD_2015.xlsx
+++ b/datastatic/datasets/online/SDG4_PISA_Maths_OECD_2015.xlsx
@@ -634,11 +634,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG4_PISA_Maths_OECD_2015.xlsx
+++ b/datastatic/datasets/online/SDG4_PISA_Maths_OECD_2015.xlsx
@@ -634,11 +634,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
